--- a/manual_ask_mate_testing.xlsx
+++ b/manual_ask_mate_testing.xlsx
@@ -193,31 +193,7 @@
     <t xml:space="preserve">click on email</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">text: “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">k@k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
+    <t xml:space="preserve">text: “k@k”</t>
   </si>
   <si>
     <t xml:space="preserve">click on confirm password</t>
@@ -259,11 +235,12 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="HH:MM:SS"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -282,153 +259,37 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <i val="true"/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -436,23 +297,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -476,64 +322,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -553,100 +348,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -657,19 +379,22 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="26.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36.55"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="85.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
@@ -1224,7 +949,7 @@
       <c r="H24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="7" t="s">
         <v>57</v>
       </c>
       <c r="J24" s="2" t="s">
@@ -1235,7 +960,7 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1256,25 +981,25 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
@@ -1380,7 +1105,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I24" r:id="rId1" display="k@k"/>
+    <hyperlink ref="I24" r:id="rId1" display="text: “k@k”"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
